--- a/21-Spreads4Tests/Proton-to-carbon-equivalent-solenoid.xlsx
+++ b/21-Spreads4Tests/Proton-to-carbon-equivalent-solenoid.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2056263865509/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{8D7310F1-EDAC-1446-B06E-D6D217703B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CFFD1E1-5188-E640-94FC-281BFF8DAF92}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{8D7310F1-EDAC-1446-B06E-D6D217703B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCEA12D9-D978-CB41-B540-B0C79185CE45}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20700" windowHeight="18880" xr2:uid="{18B04D0A-E0CC-0944-8399-8D7F9F02DB42}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{18B04D0A-E0CC-0944-8399-8D7F9F02DB42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$F$3:$L$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Solenoid strength</t>
   </si>
@@ -233,13 +236,92 @@
   </si>
   <si>
     <t>Carbon</t>
+  </si>
+  <si>
+    <t>k(Gabor)</t>
+  </si>
+  <si>
+    <t>proton</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Tm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -295,8 +377,38 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +424,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -520,6 +644,36 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D62AF3-1C90-7849-BF2D-377057E3DBCC}">
-  <dimension ref="A3:L15"/>
+  <dimension ref="A3:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -874,19 +1028,20 @@
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="J3" s="19" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
+      <c r="J3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="43"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
@@ -899,7 +1054,7 @@
       <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="34">
         <v>938.27208815999995</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -908,7 +1063,7 @@
       <c r="J4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="34">
         <v>11174.8</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -929,7 +1084,7 @@
       <c r="F5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="35">
         <v>15</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -938,7 +1093,7 @@
       <c r="J5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="35">
         <f>K6-K4</f>
         <v>45.609479836855826</v>
       </c>
@@ -964,7 +1119,7 @@
       <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="35">
         <f>G4+G5</f>
         <v>953.27208815999995</v>
       </c>
@@ -974,7 +1129,7 @@
       <c r="J6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="35">
         <f>SQRT(K4^2+K7^2)</f>
         <v>11220.409479836855</v>
       </c>
@@ -992,7 +1147,7 @@
         <v>0.90657405864347118</v>
       </c>
       <c r="C7" s="10">
-        <f t="shared" ref="C7:C12" si="1">B7*2*$K$8/$K$9</f>
+        <f t="shared" ref="C7:C11" si="1">B7*2*$K$8/$K$9</f>
         <v>1.0187472612650501</v>
       </c>
       <c r="D7">
@@ -1002,7 +1157,7 @@
       <c r="F7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="35">
         <f>SQRT(G6^2-G4^2)</f>
         <v>168.44335144136713</v>
       </c>
@@ -1012,7 +1167,7 @@
       <c r="J7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="35">
         <f>J11*K9</f>
         <v>1010.6601086482028</v>
       </c>
@@ -1040,19 +1195,23 @@
       <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G8">
-        <f>G7*G15/1000</f>
+      <c r="G8" s="35">
+        <f>G7*B16/1000</f>
         <v>0.56186654115683965</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="J8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K8">
-        <f>K7*G15/1000</f>
+      <c r="K8" s="35">
+        <f>K7*B16/1000</f>
         <v>3.3711992469410381</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
@@ -1121,13 +1280,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="20" t="s">
         <v>20</v>
       </c>
       <c r="J11">
         <f>G7/G9</f>
         <v>168.44335144136713</v>
       </c>
+      <c r="K11" s="19">
+        <f>K7/K9</f>
+        <v>168.44335144136713</v>
+      </c>
+      <c r="L11" s="19">
+        <f>J11-K11</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
@@ -1146,39 +1313,141 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F13" s="2" t="s">
+    <row r="13" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="F13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="22">
+        <f>0.176700181871962</f>
+        <v>0.17670018187196199</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="36">
+        <v>9.0073371204394598E-2</v>
+      </c>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="3">
+      <c r="B14" s="3">
         <v>299792458</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G14">
-        <f>1/G13</f>
+      <c r="B15">
+        <f>1/B14</f>
         <v>3.3356409519815204E-9</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="28"/>
+      <c r="G15" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="38">
+        <v>1.55213587950159</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="38">
+        <f>3.04488095078407</f>
+        <v>3.0448809507840702</v>
+      </c>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="8">
-        <f>G14*1000000000</f>
+      <c r="B16" s="8">
+        <f>B15*1000000000</f>
         <v>3.3356409519815204</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>8</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="40">
+        <f>H15/$H$15</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="39">
+        <f>K15/$H$15</f>
+        <v>1.961736076716311</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <f>G13/K13</f>
+        <v>1.9617360770365053</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>5106095587690800</v>
+      </c>
+      <c r="E23">
+        <f>C23/C24</f>
+        <v>0.99999999993199107</v>
+      </c>
+      <c r="J23">
+        <f>H15*J20</f>
+        <v>3.0448809512810553</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>5106095588038060</v>
+      </c>
+      <c r="J24">
+        <f>J23-K15</f>
+        <v>4.9698511972451342E-10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <f>(C23-C24)/C23</f>
+        <v>-6.8008910925431029E-11</v>
+      </c>
+      <c r="J26">
+        <f>K15/H15</f>
+        <v>1.961736076716311</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <f>J26-J20</f>
+        <v>-3.2019431550622812E-10</v>
       </c>
     </row>
   </sheetData>
@@ -1187,5 +1456,6 @@
     <mergeCell ref="J3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/21-Spreads4Tests/Proton-to-carbon-equivalent-solenoid.xlsx
+++ b/21-Spreads4Tests/Proton-to-carbon-equivalent-solenoid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2056263865509/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{8D7310F1-EDAC-1446-B06E-D6D217703B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCEA12D9-D978-CB41-B540-B0C79185CE45}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{8D7310F1-EDAC-1446-B06E-D6D217703B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D37DAB7-D1BC-DC4A-861C-B9BA76A707C4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{18B04D0A-E0CC-0944-8399-8D7F9F02DB42}"/>
+    <workbookView xWindow="4620" yWindow="5220" windowWidth="25620" windowHeight="14420" xr2:uid="{18B04D0A-E0CC-0944-8399-8D7F9F02DB42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1017,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D62AF3-1C90-7849-BF2D-377057E3DBCC}">
-  <dimension ref="A3:L27"/>
+  <dimension ref="A3:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1031,7 +1031,7 @@
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="F3" s="41" t="s">
         <v>10</v>
       </c>
@@ -1043,7 +1043,7 @@
       <c r="K3" s="42"/>
       <c r="L3" s="43"/>
     </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <f>2.4916949087545</f>
         <v>2.4916949087544999</v>
@@ -1136,8 +1136,11 @@
       <c r="L6" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>45.609479836855826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <f>1.01874726126505</f>
         <v>1.0187472612650501</v>
@@ -1175,7 +1178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <f>1.4485646330252</f>
         <v>1.4485646330252</v>
@@ -1213,7 +1216,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <f>1.78885896627796</f>
         <v>1.7888589662779599</v>
@@ -1245,7 +1248,7 @@
       </c>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <f>1.60433994066042</f>
         <v>1.60433994066042</v>
@@ -1263,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <f>1.24481401652751</f>
         <v>1.2448140165275099</v>
@@ -1296,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>1.1659674900000001</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="F13" s="21" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1333,9 @@
         <v>9.0073371204394598E-2</v>
       </c>
       <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N13" s="35"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1348,8 +1352,11 @@
       <c r="J14" s="26"/>
       <c r="K14" s="37"/>
       <c r="L14" s="27"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>1.9617360767163099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -1375,7 +1382,7 @@
       </c>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
@@ -1400,13 +1407,13 @@
         <v>1.961736076716311</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J20">
         <f>G13/K13</f>
         <v>1.9617360770365053</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>23</v>
       </c>
@@ -1422,7 +1429,7 @@
         <v>3.0448809512810553</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>24</v>
       </c>
@@ -1434,7 +1441,7 @@
         <v>4.9698511972451342E-10</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C26">
         <f>(C23-C24)/C23</f>
         <v>-6.8008910925431029E-11</v>
@@ -1444,10 +1451,15 @@
         <v>1.961736076716311</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J27">
         <f>J26-J20</f>
         <v>-3.2019431550622812E-10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>1.9617360767163099</v>
       </c>
     </row>
   </sheetData>
